--- a/data/google_mobility_report.xlsx
+++ b/data/google_mobility_report.xlsx
@@ -1,31 +1,425 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikew\Desktop\University\TilburgUniversity\Master\thesis_corona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709C121-A301-4A41-BF88-80EE845B558C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC2C79-1693-401C-B7E3-E220D7E1F179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14556" yWindow="5580" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Retail &amp; recreation" sheetId="3" r:id="rId2"/>
+    <sheet name="Grocery &amp; pharmacy" sheetId="4" r:id="rId3"/>
+    <sheet name="Parks" sheetId="5" r:id="rId4"/>
+    <sheet name="Transit stations" sheetId="2" r:id="rId5"/>
+    <sheet name="Workplace" sheetId="6" r:id="rId6"/>
+    <sheet name="Residential" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{F4DC9FBE-B94A-4588-A266-EF13D027E284}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Same as Trento (combined in the report)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FB7004B5-1F8E-4632-868E-AACFC8B83783}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{0D792028-E2C2-4AFB-A196-F89A2B61F399}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A9B7E1D5-B1AF-4C52-B8C2-6C43DE3D8B44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{EBAF00F7-82D7-4BDA-BF79-B83FB39B4886}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E6C79445-CAF0-4A6A-A24A-40593D0D994D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4420EDA2-AECA-4E8F-88BC-A5A70C6AD851}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7A304689-5409-46FC-9492-E7AA5D383E78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{F343183F-3B91-4DFE-9ABB-2D44C46773D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3D28D146-E1D2-496C-A939-CF85EDC479DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{0649203B-C21B-40DF-B3E1-BA130868C9DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mike Weltevrede</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4D0571D3-1325-4969-AC84-90677DF12F17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{57987F62-B21F-4E07-87AA-2AC566455CCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Google Mobility report combined BZ and TN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -113,18 +507,97 @@
   <si>
     <t>Provincia Autonoma di Bolzano/Bozen</t>
   </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>FVG</t>
+  </si>
+  <si>
+    <t>LAZ</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>LOM</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MOL</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>PUG</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TOS</t>
+  </si>
+  <si>
+    <t>UMB</t>
+  </si>
+  <si>
+    <t>VDA</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,12 +620,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,26 +906,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,553 +934,4634 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43919</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>-0.94</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.84</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.89</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.67</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>43919</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>-0.95</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.88</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.91</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.86</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.67</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43919</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
         <v>-0.94</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.85</v>
-      </c>
-      <c r="E4">
-        <v>-0.88</v>
       </c>
       <c r="F4">
         <v>-0.88</v>
       </c>
       <c r="G4">
+        <v>-0.88</v>
+      </c>
+      <c r="H4">
         <v>-0.64</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>43919</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>-0.91</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.84</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.77</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.86</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>43919</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
         <v>-0.94</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.95</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.85</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.63</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43919</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
         <v>-0.94</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.78</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.91</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.89</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.67</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>43919</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
         <v>-0.96</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.94</v>
-      </c>
-      <c r="E8">
-        <v>-0.88</v>
       </c>
       <c r="F8">
         <v>-0.88</v>
       </c>
       <c r="G8">
+        <v>-0.88</v>
+      </c>
+      <c r="H8">
         <v>-0.65</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>43919</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>-0.95</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.94</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.9</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.83</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.59</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43919</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
         <v>-0.94</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.76</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.88</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.62</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>43919</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
         <v>-0.94</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.8</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.91</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.85</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.6</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>43919</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
         <v>-0.95</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.81</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.91</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.89</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.65</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43919</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
         <v>-0.95</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.88</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.91</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.86</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.64</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>43919</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
         <v>-0.91</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.82</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.84</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.6</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>43919</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
         <v>-0.94</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.82</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.89</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.85</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.59</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43919</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
         <v>-0.94</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.92</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.87</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.81</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>43919</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
         <v>-0.95</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.93</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.91</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.89</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.68</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>43919</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>-0.96</v>
+      </c>
+      <c r="E18">
+        <v>-0.94</v>
+      </c>
+      <c r="F18">
+        <v>-0.93</v>
+      </c>
+      <c r="G18">
+        <v>-0.86</v>
+      </c>
+      <c r="H18">
+        <v>-0.65</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>43919</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
         <v>-0.96</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.94</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.93</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.86</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.65</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>43919</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
         <v>-0.94</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.84</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.91</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.85</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.62</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43919</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
         <v>-0.95</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.89</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.86</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.81</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.61</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>43919</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
         <v>-0.96</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.95</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.91</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.89</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.62</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF115D2-B505-448D-8FA8-1C02DC5956C4}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,2,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,2,FALSE)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,2,FALSE)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,2,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,2,FALSE)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,2,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,2,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,2,FALSE)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A024322A-A605-438A-93B2-4F294B614519}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,3,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,3,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,3,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,3,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,3,FALSE)</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,3,FALSE)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,3,FALSE)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,3,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,3,FALSE)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7490E8-8D5B-4706-8599-AEA2E89C16B4}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,4,FALSE)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,4,FALSE)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,4,FALSE)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.13</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,4,FALSE)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,4,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,4,FALSE)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCE844-16EF-4416-BE66-373FFE5D3417}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="D6">
+        <v>1.25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
+        <v>1.4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1.3</v>
+      </c>
+      <c r="P6">
+        <v>1.2</v>
+      </c>
+      <c r="Q6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R6">
+        <v>1.25</v>
+      </c>
+      <c r="S6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U6">
+        <v>1.4</v>
+      </c>
+      <c r="V6">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C7">
+        <v>1.35</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.95</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0.75</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0.7</v>
+      </c>
+      <c r="U7">
+        <v>1.35</v>
+      </c>
+      <c r="V7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.85</v>
+      </c>
+      <c r="K8">
+        <v>0.65</v>
+      </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="Q8">
+        <v>0.9</v>
+      </c>
+      <c r="V8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="L9">
+        <v>0.85</v>
+      </c>
+      <c r="R9">
+        <v>0.85</v>
+      </c>
+      <c r="S9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="N10">
+        <v>0.8</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="O11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.85</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>0.95</v>
+      </c>
+      <c r="Q17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="N19">
+        <v>0.8</v>
+      </c>
+      <c r="U19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20">
+        <v>0.85</v>
+      </c>
+      <c r="K20">
+        <v>0.65</v>
+      </c>
+      <c r="L20">
+        <v>0.8</v>
+      </c>
+      <c r="P20">
+        <v>0.85</v>
+      </c>
+      <c r="Q20">
+        <v>0.6</v>
+      </c>
+      <c r="R20">
+        <v>0.85</v>
+      </c>
+      <c r="S20">
+        <v>0.8</v>
+      </c>
+      <c r="T20">
+        <v>0.7</v>
+      </c>
+      <c r="U20">
+        <v>0.8</v>
+      </c>
+      <c r="V20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+      <c r="V21">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="R26">
+        <v>0.2</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>0.11</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.25</v>
+      </c>
+      <c r="I27">
+        <v>0.2</v>
+      </c>
+      <c r="J27">
+        <v>0.2</v>
+      </c>
+      <c r="K27">
+        <v>0.2</v>
+      </c>
+      <c r="L27">
+        <v>0.2</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27">
+        <v>0.2</v>
+      </c>
+      <c r="O27">
+        <v>0.2</v>
+      </c>
+      <c r="P27">
+        <v>0.25</v>
+      </c>
+      <c r="Q27">
+        <v>0.2</v>
+      </c>
+      <c r="R27">
+        <v>0.2</v>
+      </c>
+      <c r="S27">
+        <v>0.2</v>
+      </c>
+      <c r="T27">
+        <v>0.2</v>
+      </c>
+      <c r="U27">
+        <v>0.2</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+      <c r="L28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
+        <v>0.25</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+      <c r="U28">
+        <v>0.3</v>
+      </c>
+      <c r="V28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+      <c r="U34">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+      <c r="U35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,5,FALSE)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,5,FALSE)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,5,FALSE)</f>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+      <c r="N55">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D50B4BD-1F18-4D81-AF5A-5201943B8575}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.37</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.38</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.36</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.38</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.39</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,6,FALSE)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+      <c r="N55">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EE9D81-D4EC-43F2-868A-7C2FAC871707}">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B41" s="3">
+        <f>1+VLOOKUP(B1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.24</v>
+      </c>
+      <c r="C41" s="3">
+        <f>1+VLOOKUP(C1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.22</v>
+      </c>
+      <c r="D41" s="3">
+        <f>1+VLOOKUP(D1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E41" s="3">
+        <f>1+VLOOKUP(E1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.22</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1+VLOOKUP(F1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.23</v>
+      </c>
+      <c r="G41" s="3">
+        <f>1+VLOOKUP(G1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.24</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1+VLOOKUP(H1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.24</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1+VLOOKUP(I1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.24</v>
+      </c>
+      <c r="J41" s="3">
+        <f>1+VLOOKUP(J1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.23</v>
+      </c>
+      <c r="K41" s="3">
+        <f>1+VLOOKUP(K1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.24</v>
+      </c>
+      <c r="L41" s="3">
+        <f>1+VLOOKUP(L1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.26</v>
+      </c>
+      <c r="M41" s="3">
+        <f>1+VLOOKUP(M1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.29</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1+VLOOKUP(N1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.23</v>
+      </c>
+      <c r="O41" s="3">
+        <f>1+VLOOKUP(O1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="P41" s="3">
+        <f>1+VLOOKUP(P1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.22</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>1+VLOOKUP(Q1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="R41" s="3">
+        <f>1+VLOOKUP(R1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="S41" s="3">
+        <f>1+VLOOKUP(S1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="T41" s="3">
+        <f>1+VLOOKUP(T1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+      <c r="U41" s="3">
+        <f>1+VLOOKUP(U1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="V41" s="3">
+        <f>1+VLOOKUP(V1,Overall!$C:$I,7,FALSE)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43933</v>
+      </c>
+      <c r="N55">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/google_mobility_report.xlsx
+++ b/data/google_mobility_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikew\Desktop\University\TilburgUniversity\Master\thesis_corona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC2C79-1693-401C-B7E3-E220D7E1F179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF6CCF-8715-4FCE-916E-28E1D7BD9333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14556" yWindow="5580" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,158 @@
     <author>Mike Weltevrede</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{ABED1B27-171E-4515-BF40-B8C911AFF1EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places like restaurants,
+cafes, shopping centers, theme parks,
+museums, libraries, and movie theaters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6B184DEF-4A92-4B20-8A46-1D11F06F80B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places like grocery
+markets, food warehouses, farmers
+markets, specialty food shops, drug stores,
+and pharmacies.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{898E19F8-FAEB-420E-A1C4-D19A757C4ACA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places like national parks,
+public beaches, marinas, dog parks, plazas,
+and public gardens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{350CA0D0-1800-4ECF-BA64-04C1C494B51D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places like public transport
+hubs such as subway, bus, and train stations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{F0304C52-76FE-4061-A3B3-DEA23223C037}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places of work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98A28AA7-64DD-42A4-AB2E-D2477BC6058D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Weltevrede:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobility trends for places of residence.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0" xr:uid="{F4DC9FBE-B94A-4588-A266-EF13D027E284}">
       <text>
         <r>
@@ -910,7 +1062,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1048576"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,11 +1726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF115D2-B505-448D-8FA8-1C02DC5956C4}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,6 +1954,9 @@
       <c r="A4" s="2">
         <v>43882</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1812,6 +1967,9 @@
       <c r="A6" s="2">
         <v>43884</v>
       </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1863,82 +2021,91 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43897</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43899</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43903</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43904</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43905</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43906</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43907</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43910</v>
       </c>
@@ -2153,10 +2320,10 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,21 +2552,33 @@
       <c r="A5" s="2">
         <v>43883</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43884</v>
       </c>
+      <c r="K6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885</v>
       </c>
+      <c r="K7">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43886</v>
       </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2425,6 +2604,9 @@
       <c r="A13" s="2">
         <v>43891</v>
       </c>
+      <c r="K13">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -2440,83 +2622,95 @@
       <c r="A16" s="2">
         <v>43894</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43896</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43897</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43899</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43903</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43904</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43905</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43906</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43907</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43910</v>
       </c>
@@ -2525,6 +2719,9 @@
       <c r="A33" s="2">
         <v>43911</v>
       </c>
+      <c r="K33">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -2535,6 +2732,9 @@
       <c r="A35" s="2">
         <v>43913</v>
       </c>
+      <c r="K35">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -2545,6 +2745,9 @@
       <c r="A37" s="2">
         <v>43915</v>
       </c>
+      <c r="K37">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -2554,6 +2757,9 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43917</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -2731,10 +2937,10 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2958,56 +3164,89 @@
       <c r="A4" s="2">
         <v>43882</v>
       </c>
+      <c r="K4">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43883</v>
       </c>
+      <c r="K5">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43884</v>
       </c>
+      <c r="K6">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885</v>
       </c>
+      <c r="K7">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43886</v>
       </c>
+      <c r="K8">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43887</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43888</v>
       </c>
+      <c r="K10">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43889</v>
       </c>
+      <c r="K11">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43890</v>
       </c>
+      <c r="K12">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43891</v>
       </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43892</v>
       </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -3019,82 +3258,115 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43895</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43899</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43900</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43901</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43903</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43904</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43905</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43906</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43907</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43910</v>
       </c>
@@ -3103,6 +3375,9 @@
       <c r="A33" s="2">
         <v>43911</v>
       </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -3112,6 +3387,9 @@
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43913</v>
+      </c>
+      <c r="K35">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4337,10 +4615,10 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4568,11 +4846,17 @@
       <c r="A6" s="2">
         <v>43884</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885</v>
       </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -4619,82 +4903,88 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43896</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43897</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43899</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43903</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43904</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43905</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43906</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43907</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43910</v>
       </c>
@@ -4732,6 +5022,9 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43917</v>
+      </c>
+      <c r="K39">
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -4953,11 +5246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EE9D81-D4EC-43F2-868A-7C2FAC871707}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:V3"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,11 +5478,17 @@
       <c r="A6" s="2">
         <v>43884</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885</v>
       </c>
+      <c r="K7">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -5236,84 +5535,96 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43896</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43897</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43899</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43900</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43903</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43904</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43905</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43906</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43907</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43910</v>
+      </c>
+      <c r="K32">
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -5325,11 +5636,17 @@
       <c r="A34" s="2">
         <v>43912</v>
       </c>
+      <c r="K34">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43913</v>
       </c>
+      <c r="K35">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -5349,6 +5666,9 @@
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43917</v>
+      </c>
+      <c r="K39">
+        <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
